--- a/data/trans_orig/P5709-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>274844</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>252582</v>
+        <v>250429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299406</v>
+        <v>298332</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4705100348180599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.43239884968994</v>
+        <v>0.4287138997287348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5125576632223926</v>
+        <v>0.5107191270254806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>438</v>
@@ -765,19 +765,19 @@
         <v>449116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>420523</v>
+        <v>416008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>480094</v>
+        <v>479296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4875428936335696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4565038067506446</v>
+        <v>0.4516027029791099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5211714207252313</v>
+        <v>0.5203051820048767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>707</v>
@@ -786,19 +786,19 @@
         <v>723960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>683185</v>
+        <v>681768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>760906</v>
+        <v>761808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4809332863519665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4538458242422554</v>
+        <v>0.452904510299232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5054764960788072</v>
+        <v>0.506075995797865</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>133770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114164</v>
+        <v>113726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154639</v>
+        <v>156613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2290029136848097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1954385618718615</v>
+        <v>0.1946893376043813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2647289967492658</v>
+        <v>0.2681078271922229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -836,19 +836,19 @@
         <v>153179</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129701</v>
+        <v>129304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174537</v>
+        <v>177840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1662853123859319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1407986225906925</v>
+        <v>0.1403676795776854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1894712019277291</v>
+        <v>0.1930566545104799</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -857,19 +857,19 @@
         <v>286949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260864</v>
+        <v>257486</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>321444</v>
+        <v>316909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1906229012029233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.173294385631924</v>
+        <v>0.1710500933736016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2135384046428409</v>
+        <v>0.2105257293300533</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>115573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95603</v>
+        <v>97809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134577</v>
+        <v>136576</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1978505852026056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1636648030043953</v>
+        <v>0.1674413807958955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2303846784228004</v>
+        <v>0.2338069460926102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -907,19 +907,19 @@
         <v>186370</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164521</v>
+        <v>161350</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210593</v>
+        <v>213984</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2023160998900579</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1785976119013598</v>
+        <v>0.1751558056970993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.228612248861475</v>
+        <v>0.2322932507377711</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>294</v>
@@ -928,19 +928,19 @@
         <v>301943</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>272225</v>
+        <v>272474</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>331969</v>
+        <v>334578</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2005832552329171</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1808417643023929</v>
+        <v>0.1810069889154893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2205296313154297</v>
+        <v>0.2222633791985142</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>43231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31306</v>
+        <v>31421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57822</v>
+        <v>57270</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.074008025308702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05359285677296093</v>
+        <v>0.0537897565587013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09898653339869469</v>
+        <v>0.09804205968449455</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -978,19 +978,19 @@
         <v>104552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85526</v>
+        <v>84015</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123487</v>
+        <v>126439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.113497500644588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09284345696310052</v>
+        <v>0.09120371872923973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1340522913246157</v>
+        <v>0.1372573304787116</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -999,19 +999,19 @@
         <v>147783</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124348</v>
+        <v>124703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172027</v>
+        <v>173864</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09817359486025252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08260526848420248</v>
+        <v>0.08284107568980362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1142793701827709</v>
+        <v>0.1154990909372043</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>16723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10263</v>
+        <v>10080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26462</v>
+        <v>27294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02862844098582278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0175701742192265</v>
+        <v>0.01725610764697705</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04530139556306861</v>
+        <v>0.04672464256894562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1049,19 +1049,19 @@
         <v>27965</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19175</v>
+        <v>18756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42530</v>
+        <v>40544</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0303581934458527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02081616765277513</v>
+        <v>0.02036075740460268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04616863851809329</v>
+        <v>0.04401311963442275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1070,19 +1070,19 @@
         <v>44688</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33076</v>
+        <v>31311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61858</v>
+        <v>59787</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02968696235194062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0219728688329636</v>
+        <v>0.02080026708316814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04109251077359138</v>
+        <v>0.03971719168024866</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>604934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>572925</v>
+        <v>573780</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>637465</v>
+        <v>639064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5617839408287142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5320580550511317</v>
+        <v>0.5328523777719277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5919948654366116</v>
+        <v>0.5934794868191248</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>509</v>
@@ -1195,19 +1195,19 @@
         <v>519867</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>487444</v>
+        <v>487154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>553620</v>
+        <v>552426</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4915825836474475</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4609233450987854</v>
+        <v>0.4606494011491609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5234988614504981</v>
+        <v>0.5223697214192277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1099</v>
@@ -1216,19 +1216,19 @@
         <v>1124801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1080563</v>
+        <v>1077478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1173682</v>
+        <v>1166863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5270001943188782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5062732127483206</v>
+        <v>0.5048277618929391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5499019949928595</v>
+        <v>0.5467074129848948</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>266697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239137</v>
+        <v>237365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295797</v>
+        <v>293112</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.247673127550082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2220795238277871</v>
+        <v>0.2204335608059302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2746974313559992</v>
+        <v>0.2722040821059395</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -1266,19 +1266,19 @@
         <v>251261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222792</v>
+        <v>224302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278729</v>
+        <v>278583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2375907130470878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2106705558122101</v>
+        <v>0.2120987408523915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.263564001900389</v>
+        <v>0.2634259990745936</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>508</v>
@@ -1287,19 +1287,19 @@
         <v>517958</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>477822</v>
+        <v>481085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558775</v>
+        <v>559306</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2426774385155568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2238727821451122</v>
+        <v>0.2254014752878383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2618011725825615</v>
+        <v>0.2620502613929102</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>159692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139052</v>
+        <v>136979</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>183218</v>
+        <v>183341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1483008911187055</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1291334581026608</v>
+        <v>0.1272085190406878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1701487251765677</v>
+        <v>0.1702631743037826</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>198</v>
@@ -1337,19 +1337,19 @@
         <v>205921</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>179790</v>
+        <v>181942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231663</v>
+        <v>231290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1947177453707378</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1700081726680195</v>
+        <v>0.1720430100959207</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2190591123742558</v>
+        <v>0.2187063798378038</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>356</v>
@@ -1358,19 +1358,19 @@
         <v>365613</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>333152</v>
+        <v>333829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>400270</v>
+        <v>402422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1712997640310591</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1560907697518353</v>
+        <v>0.1564079512810623</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1875372274999575</v>
+        <v>0.1885457615510718</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>41127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29065</v>
+        <v>28722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55808</v>
+        <v>55447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03819319309382863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02699187852922141</v>
+        <v>0.02667360105690049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05182706109847097</v>
+        <v>0.0514921279568926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1408,19 +1408,19 @@
         <v>70204</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55574</v>
+        <v>53956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87776</v>
+        <v>87742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06638446188648305</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05255074481007237</v>
+        <v>0.05102010531656321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0830001740042301</v>
+        <v>0.08296782306471628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -1429,19 +1429,19 @@
         <v>111331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90578</v>
+        <v>92985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133030</v>
+        <v>133314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0521615547729674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04243812573200911</v>
+        <v>0.04356613474831111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06232814214206764</v>
+        <v>0.06246136660836173</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>973</v>
+        <v>1593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11251</v>
+        <v>11560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004048847408669763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009033849347676563</v>
+        <v>0.001479826350386006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0104486024334999</v>
+        <v>0.01073521592226701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>10284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5259</v>
+        <v>5265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17828</v>
+        <v>19155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009724496048243792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004973170200017317</v>
+        <v>0.00497812567405219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01685791302715383</v>
+        <v>0.01811256465079315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1500,19 +1500,19 @@
         <v>14644</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8608</v>
+        <v>8074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24775</v>
+        <v>24097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006861048361538519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00403307407921864</v>
+        <v>0.003782914912570789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0116075632996603</v>
+        <v>0.01129009276768434</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>645535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>610840</v>
+        <v>609204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>675447</v>
+        <v>675406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5755517444177576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5446177748599105</v>
+        <v>0.5431592971748879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6022205281152698</v>
+        <v>0.6021841483294363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>476</v>
@@ -1625,19 +1625,19 @@
         <v>475807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>443227</v>
+        <v>445248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>510842</v>
+        <v>509681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4787082711593955</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4459295058177379</v>
+        <v>0.447962329837959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5139570228590968</v>
+        <v>0.5127889598917981</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1109</v>
@@ -1646,19 +1646,19 @@
         <v>1121343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1075390</v>
+        <v>1073254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1162254</v>
+        <v>1165084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5300518522047676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5083301073254245</v>
+        <v>0.5073203937309583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5493904284862386</v>
+        <v>0.5507282035667181</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>284155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>256023</v>
+        <v>255839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>315521</v>
+        <v>314696</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2533488530010996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2282672203323217</v>
+        <v>0.2281032793789138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2813145185379529</v>
+        <v>0.2805789503082718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -1696,19 +1696,19 @@
         <v>294609</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264171</v>
+        <v>268149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>325124</v>
+        <v>324770</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2964053367231766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2657818222578699</v>
+        <v>0.2697835372945364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3271061508415353</v>
+        <v>0.326750231298545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>573</v>
@@ -1717,19 +1717,19 @@
         <v>578764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>536703</v>
+        <v>540841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>619307</v>
+        <v>619908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2735780465906191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2536963211058141</v>
+        <v>0.2556521602482782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2927427337026467</v>
+        <v>0.2930266751836299</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>152167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>132150</v>
+        <v>130922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176776</v>
+        <v>177360</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.135670010494063</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1178236132288374</v>
+        <v>0.1167283678705389</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1576110149366623</v>
+        <v>0.1581321692544885</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>161</v>
@@ -1767,19 +1767,19 @@
         <v>167114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>144880</v>
+        <v>142150</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>194049</v>
+        <v>191854</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1681326845287922</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1457628298665374</v>
+        <v>0.143016709053375</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1952322448508511</v>
+        <v>0.1930237964572907</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>313</v>
@@ -1788,19 +1788,19 @@
         <v>319280</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>288148</v>
+        <v>288297</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>352738</v>
+        <v>352027</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1509219228824704</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1362055955376794</v>
+        <v>0.1362760712073947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1667372048629338</v>
+        <v>0.1664010413359502</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>33619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22634</v>
+        <v>23504</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47283</v>
+        <v>47381</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02997457700733212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02018061579655756</v>
+        <v>0.02095548692320724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0421570423122574</v>
+        <v>0.04224399292464155</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1838,19 +1838,19 @@
         <v>48098</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35373</v>
+        <v>35554</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63127</v>
+        <v>62740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04839098068333855</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03558819422999814</v>
+        <v>0.03577026961914467</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06351176789498791</v>
+        <v>0.06312282169706823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1859,19 +1859,19 @@
         <v>81717</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65058</v>
+        <v>64337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103644</v>
+        <v>102132</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03862714133630565</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03075245411258529</v>
+        <v>0.03041183167037364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04899199953291171</v>
+        <v>0.0482771863987221</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>6118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2379</v>
+        <v>2215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15081</v>
+        <v>14043</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005454815079747679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002121164353575066</v>
+        <v>0.001974599657642318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01344563110125439</v>
+        <v>0.01252095565604226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1909,19 +1909,19 @@
         <v>8312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3859</v>
+        <v>3387</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15472</v>
+        <v>17224</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008362726905297165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003882324322259909</v>
+        <v>0.003407951794678564</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01556629389956113</v>
+        <v>0.01732925058414525</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1930,19 +1930,19 @@
         <v>14430</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7662</v>
+        <v>7816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24304</v>
+        <v>25944</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00682103698583732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003621672440967141</v>
+        <v>0.003694492813723236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.011488284151956</v>
+        <v>0.01226354879452821</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>264521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240386</v>
+        <v>243522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>284076</v>
+        <v>285540</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5915049340504135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5375361711652047</v>
+        <v>0.5445481867113494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6352326033992108</v>
+        <v>0.6385073727689067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>206</v>
@@ -2055,19 +2055,19 @@
         <v>203994</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>185961</v>
+        <v>186306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221954</v>
+        <v>222380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5979469342903122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5450871208004661</v>
+        <v>0.5460993529861583</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6505901503166842</v>
+        <v>0.6518386164778338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>466</v>
@@ -2076,19 +2076,19 @@
         <v>468515</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>438689</v>
+        <v>440109</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>493490</v>
+        <v>495106</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5942926795143313</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5564591407836657</v>
+        <v>0.5582605978792904</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6259719410392266</v>
+        <v>0.6280221218616715</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>125628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109289</v>
+        <v>107266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>148738</v>
+        <v>146161</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2809219964411559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2443841566701868</v>
+        <v>0.2398614816430085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3325984930616979</v>
+        <v>0.3268349054779615</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>90</v>
@@ -2126,19 +2126,19 @@
         <v>91367</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76214</v>
+        <v>76662</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108044</v>
+        <v>108045</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2678155093814623</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2233988441024948</v>
+        <v>0.2247099839261706</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3166968484083547</v>
+        <v>0.3167013833264815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -2147,19 +2147,19 @@
         <v>216996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>194101</v>
+        <v>191235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>244892</v>
+        <v>241883</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2752502254868083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2462092442030053</v>
+        <v>0.2425739002297743</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3106353238552226</v>
+        <v>0.3068183372196232</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>43009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31049</v>
+        <v>31971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58959</v>
+        <v>57088</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09617310499464855</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06942932130874575</v>
+        <v>0.07149135495411764</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1318407673823188</v>
+        <v>0.1276566069794367</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2197,19 +2197,19 @@
         <v>34268</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24010</v>
+        <v>24990</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46425</v>
+        <v>46538</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1004456378034554</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07037852773299279</v>
+        <v>0.07325119313344687</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1360796814974749</v>
+        <v>0.1364105596863752</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -2218,19 +2218,19 @@
         <v>77276</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61869</v>
+        <v>61274</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96696</v>
+        <v>94371</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09802202357795158</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07847783838068842</v>
+        <v>0.07772322165683328</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1226552877243301</v>
+        <v>0.1197055485627057</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>13171</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7701</v>
+        <v>7028</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23300</v>
+        <v>22617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02945203163007697</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01722155797016704</v>
+        <v>0.01571504780074722</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05210121431632128</v>
+        <v>0.05057549823841481</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2268,19 +2268,19 @@
         <v>10547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4983</v>
+        <v>5369</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18697</v>
+        <v>19580</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0309142785097701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01460614808854288</v>
+        <v>0.01573753191622274</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05480385960503661</v>
+        <v>0.05739366712166958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -2289,19 +2289,19 @@
         <v>23718</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14850</v>
+        <v>15323</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35976</v>
+        <v>35907</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0300848121259151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01883616959007595</v>
+        <v>0.01943612235625816</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04563357339467668</v>
+        <v>0.04554625229565291</v>
       </c>
     </row>
     <row r="26">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4878</v>
+        <v>5465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001947932883705056</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01090842153274058</v>
+        <v>0.01221954058764789</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4952</v>
+        <v>4939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002877640015000012</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01451617260158623</v>
+        <v>0.01447756155461292</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6567</v>
+        <v>5741</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002350259294993778</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008330593973101607</v>
+        <v>0.007281919594937125</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1789835</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1737333</v>
+        <v>1726902</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1847414</v>
+        <v>1855975</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5541722681176395</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.53791638303596</v>
+        <v>0.5346869461694582</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5719999116704543</v>
+        <v>0.5746505967634458</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1629</v>
@@ -2485,19 +2485,19 @@
         <v>1648785</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1590372</v>
+        <v>1594570</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1703664</v>
+        <v>1703254</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4975483545571142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4799212039305614</v>
+        <v>0.4811881268798117</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5141090285548208</v>
+        <v>0.5139852302162085</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3381</v>
@@ -2506,19 +2506,19 @@
         <v>3438619</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3349152</v>
+        <v>3358975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3521656</v>
+        <v>3520822</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5254965530392877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5118239352675236</v>
+        <v>0.5133251674268806</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5381864153889055</v>
+        <v>0.5380590106496201</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>810250</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>759503</v>
+        <v>758849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>856351</v>
+        <v>860073</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.250871119404626</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2351589128928512</v>
+        <v>0.2349564084910083</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2651451814302693</v>
+        <v>0.2662974500098029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>773</v>
@@ -2556,19 +2556,19 @@
         <v>790417</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>743687</v>
+        <v>742278</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>842685</v>
+        <v>836380</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.238521469435574</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2244201354922631</v>
+        <v>0.2239947861882251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2542941576128277</v>
+        <v>0.2523915274647017</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1568</v>
@@ -2577,19 +2577,19 @@
         <v>1600666</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1532648</v>
+        <v>1528709</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1670827</v>
+        <v>1669568</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2446169588996058</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2342222930601283</v>
+        <v>0.2336203442155247</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2553391143899222</v>
+        <v>0.255146709210566</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>470440</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>431989</v>
+        <v>430973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>514234</v>
+        <v>515751</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1456585084132665</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1337532367206994</v>
+        <v>0.1334388196529564</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1592182043362226</v>
+        <v>0.1596879272390781</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>569</v>
@@ -2627,19 +2627,19 @@
         <v>593673</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>549319</v>
+        <v>548826</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>640039</v>
+        <v>637900</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1791507547910124</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1657663084255091</v>
+        <v>0.165617470620552</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1931425299063186</v>
+        <v>0.1924968475547759</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1037</v>
@@ -2648,19 +2648,19 @@
         <v>1064113</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1005630</v>
+        <v>1002658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1125574</v>
+        <v>1123445</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1626197895058497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1536823884203481</v>
+        <v>0.1532281730974979</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1720124980614569</v>
+        <v>0.1716870859384139</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>131148</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>111138</v>
+        <v>108898</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>158112</v>
+        <v>155511</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04060636479359259</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03441067053690047</v>
+        <v>0.03371710339101101</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04895487191934256</v>
+        <v>0.04814977619404955</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>218</v>
@@ -2698,19 +2698,19 @@
         <v>233400</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>204625</v>
+        <v>206692</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>264693</v>
+        <v>268319</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07043245677027218</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06174897900083193</v>
+        <v>0.06237287156997354</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07987550177898696</v>
+        <v>0.08096983554967481</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>344</v>
@@ -2719,19 +2719,19 @@
         <v>364548</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>328435</v>
+        <v>330051</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>410204</v>
+        <v>400889</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05571101690333712</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05019207944290514</v>
+        <v>0.05043908791027182</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06268817991707375</v>
+        <v>0.06126461728790454</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>28072</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17929</v>
+        <v>18218</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41703</v>
+        <v>41065</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008691739270875418</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005551148001940461</v>
+        <v>0.005640551726811108</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0129120937706733</v>
+        <v>0.01271474095229361</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -2769,19 +2769,19 @@
         <v>47543</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34993</v>
+        <v>35665</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62696</v>
+        <v>66203</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01434696444602728</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01055966451808058</v>
+        <v>0.01076262340411874</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01891961553381331</v>
+        <v>0.01997784530982092</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -2790,19 +2790,19 @@
         <v>75615</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59714</v>
+        <v>60889</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>95613</v>
+        <v>98033</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01155568165191971</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009125646975576834</v>
+        <v>0.009305152836000082</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01461182652437308</v>
+        <v>0.01498160628095829</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>542211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>512880</v>
+        <v>507454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>576804</v>
+        <v>576400</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5219324018038289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.493698262064059</v>
+        <v>0.4884755129935404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5552317800880155</v>
+        <v>0.5548428857847993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>488</v>
@@ -3155,19 +3155,19 @@
         <v>531418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>495830</v>
+        <v>495796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>565711</v>
+        <v>565459</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.47497671636987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4431689701733111</v>
+        <v>0.4431380969117021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5056278428122419</v>
+        <v>0.5054025553997081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>996</v>
@@ -3176,19 +3176,19 @@
         <v>1073628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1027115</v>
+        <v>1024633</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1121186</v>
+        <v>1118126</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4975843343476248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4760273187118291</v>
+        <v>0.4748770974657955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5196256309250737</v>
+        <v>0.5182073565676555</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>262583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232033</v>
+        <v>233583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293032</v>
+        <v>291159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2527624933266437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2233551702033627</v>
+        <v>0.2248466117738573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2820726074943312</v>
+        <v>0.280269879524816</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -3226,19 +3226,19 @@
         <v>286285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258516</v>
+        <v>258037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316252</v>
+        <v>321829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2558795570051557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2310594840771813</v>
+        <v>0.2306314874947109</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2826635009857708</v>
+        <v>0.2876481905487125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>514</v>
@@ -3247,19 +3247,19 @@
         <v>548868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>510087</v>
+        <v>505064</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592995</v>
+        <v>589157</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2543787933765372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2364051453407741</v>
+        <v>0.2340770951515581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2748296033282407</v>
+        <v>0.2730511515390028</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>153573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132867</v>
+        <v>131023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>181208</v>
+        <v>178245</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1478292528631643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1278980562785597</v>
+        <v>0.1261225559525232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1744305044230534</v>
+        <v>0.1715788934351143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>167</v>
@@ -3297,19 +3297,19 @@
         <v>181057</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153920</v>
+        <v>158509</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>207249</v>
+        <v>208958</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1618269283901383</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1375728264890781</v>
+        <v>0.1416742863789703</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1852370818480574</v>
+        <v>0.1867647046011102</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>310</v>
@@ -3318,19 +3318,19 @@
         <v>334629</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>302058</v>
+        <v>296797</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>369303</v>
+        <v>370407</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1550875080629562</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1399917508358311</v>
+        <v>0.1375535503021987</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1711573370517955</v>
+        <v>0.1716688450548194</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>66215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49139</v>
+        <v>51523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82635</v>
+        <v>82644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0637387838759481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04730126798202058</v>
+        <v>0.04959602018460392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0795445408127764</v>
+        <v>0.07955291827148533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -3368,19 +3368,19 @@
         <v>80227</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62504</v>
+        <v>63070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98721</v>
+        <v>98984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07170587970095343</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05586588318843142</v>
+        <v>0.05637116142789685</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08823588718761065</v>
+        <v>0.08847122591272651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -3389,19 +3389,19 @@
         <v>146442</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124005</v>
+        <v>123997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175793</v>
+        <v>171685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06786998513058852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05747121349872798</v>
+        <v>0.05746759688142584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08147333957554038</v>
+        <v>0.07956910532005894</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>14271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8314</v>
+        <v>8030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24142</v>
+        <v>23908</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01373706813041491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008002956065644686</v>
+        <v>0.007730011668837069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0232387385888058</v>
+        <v>0.02301355513499507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3439,19 +3439,19 @@
         <v>39843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28933</v>
+        <v>28477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54098</v>
+        <v>55188</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03561091853388251</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02585969473467749</v>
+        <v>0.02545288001679722</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04835249698694033</v>
+        <v>0.04932682973791244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -3460,7 +3460,7 @@
         <v>54113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40763</v>
+        <v>39613</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>71894</v>
@@ -3469,10 +3469,10 @@
         <v>0.02507937908229326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01889195287358847</v>
+        <v>0.01835900179239637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03332013858405639</v>
+        <v>0.0333200149084085</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>559924</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>530595</v>
+        <v>527483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>592591</v>
+        <v>591315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5742037852542716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.544127346118348</v>
+        <v>0.5409360343315126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6077036672964339</v>
+        <v>0.6063957031039064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -3585,19 +3585,19 @@
         <v>532254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>496635</v>
+        <v>497943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>562918</v>
+        <v>565372</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4883418133148931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4556621564402867</v>
+        <v>0.4568622158912591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.516476460104448</v>
+        <v>0.518728025940677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1037</v>
@@ -3606,19 +3606,19 @@
         <v>1092177</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1041601</v>
+        <v>1047002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1137934</v>
+        <v>1141392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5288864071629996</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5043947528842055</v>
+        <v>0.5070101629280674</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5510441383283479</v>
+        <v>0.5527183859712722</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>268973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241299</v>
+        <v>239784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297310</v>
+        <v>297883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2758326019209497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2474529746254407</v>
+        <v>0.245898844337132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3048924953007405</v>
+        <v>0.305479523979102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -3656,19 +3656,19 @@
         <v>304270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275243</v>
+        <v>275020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334335</v>
+        <v>334925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2791668329924343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2525354137533447</v>
+        <v>0.2523303882799646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3067523172353723</v>
+        <v>0.307292831746406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>539</v>
@@ -3677,19 +3677,19 @@
         <v>573242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531267</v>
+        <v>533709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618567</v>
+        <v>618278</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2775923869188626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2572657884875939</v>
+        <v>0.258448233365077</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2995409746669547</v>
+        <v>0.2994007868632916</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>108745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>89715</v>
+        <v>89945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131896</v>
+        <v>132319</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.111518640811322</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09200352918960626</v>
+        <v>0.0922392378757204</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1352599153529817</v>
+        <v>0.1356931706186981</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>160</v>
@@ -3727,19 +3727,19 @@
         <v>173959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>149372</v>
+        <v>148537</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>198423</v>
+        <v>200700</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1596067984132177</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1370485510327171</v>
+        <v>0.1362824402869092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1820524737717703</v>
+        <v>0.18414157192334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -3748,19 +3748,19 @@
         <v>282704</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>250864</v>
+        <v>250679</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>319231</v>
+        <v>316960</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1368992507662901</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1214808986564852</v>
+        <v>0.1213912047501097</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1545875814458357</v>
+        <v>0.1534879097208298</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>24602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16001</v>
+        <v>15319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37233</v>
+        <v>36679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02522926550746026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01640931382910436</v>
+        <v>0.01570937751919309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03818286421465147</v>
+        <v>0.03761486169445671</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -3798,19 +3798,19 @@
         <v>61074</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46830</v>
+        <v>46823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78806</v>
+        <v>76975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0560355246002596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04296650469995765</v>
+        <v>0.04295967083786478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07230479146123864</v>
+        <v>0.07062452807123593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -3819,19 +3819,19 @@
         <v>85676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67588</v>
+        <v>67791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103973</v>
+        <v>106399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04148860429683421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03272941208412765</v>
+        <v>0.03282757189748135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05034898179685623</v>
+        <v>0.05152382720940694</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>12887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6313</v>
+        <v>6564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22209</v>
+        <v>22806</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01321570650599637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006473564117944577</v>
+        <v>0.006731595949328401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02277554898095796</v>
+        <v>0.02338723336417713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -3869,19 +3869,19 @@
         <v>18364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11336</v>
+        <v>11162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28352</v>
+        <v>28199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01684903067919526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01040064176462637</v>
+        <v>0.01024082016889888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02601254826485693</v>
+        <v>0.02587278769713926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -3890,19 +3890,19 @@
         <v>31251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20445</v>
+        <v>21056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45746</v>
+        <v>44821</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01513335085501345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009900302116506136</v>
+        <v>0.01019656807047895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02215269638357543</v>
+        <v>0.0217047338608461</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>516409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>488903</v>
+        <v>486958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>548651</v>
+        <v>546115</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5834376983767977</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5523610569251276</v>
+        <v>0.5501637118360406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6198637240619043</v>
+        <v>0.6169989964460469</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>442</v>
@@ -4015,19 +4015,19 @@
         <v>471524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>440171</v>
+        <v>444231</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>498724</v>
+        <v>501676</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5395737172963578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5036956303212694</v>
+        <v>0.5083412513139416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5706992773773871</v>
+        <v>0.5740764961639898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>927</v>
@@ -4036,19 +4036,19 @@
         <v>987934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>943996</v>
+        <v>944872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1030444</v>
+        <v>1030254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.561645758873917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5366668151000011</v>
+        <v>0.5371649131210243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5858129497266964</v>
+        <v>0.5857050677383111</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>249312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>223342</v>
+        <v>223734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276906</v>
+        <v>278303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2816715107283779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2523307872788041</v>
+        <v>0.2527738052275767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.312848035331745</v>
+        <v>0.3144253517443988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -4086,19 +4086,19 @@
         <v>279587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>254702</v>
+        <v>253954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>309537</v>
+        <v>308947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3199364263006906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2914603859172986</v>
+        <v>0.2906043305368304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3542091648719926</v>
+        <v>0.3535341290295335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>498</v>
@@ -4107,19 +4107,19 @@
         <v>528899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>492764</v>
+        <v>489920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>569430</v>
+        <v>571455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3006817944439735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.280138988448163</v>
+        <v>0.2785224424183163</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3237238816750357</v>
+        <v>0.3248751965207062</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>90604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73209</v>
+        <v>75046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112646</v>
+        <v>111901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1023641614814602</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08271171662925675</v>
+        <v>0.08478723875685065</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1272668512844293</v>
+        <v>0.1264252181248586</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -4157,19 +4157,19 @@
         <v>95330</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78497</v>
+        <v>76615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116360</v>
+        <v>115060</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1090881299447553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08982506317975332</v>
+        <v>0.08767196201615121</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1331523642293441</v>
+        <v>0.1316651174769616</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>172</v>
@@ -4178,19 +4178,19 @@
         <v>185934</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>158659</v>
+        <v>159479</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>211563</v>
+        <v>213414</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1057046771018434</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09019874368057407</v>
+        <v>0.09066460341047719</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.120274762778887</v>
+        <v>0.1213270874735721</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>20433</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13324</v>
+        <v>12220</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30900</v>
+        <v>31237</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0230851611154884</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01505303650436532</v>
+        <v>0.01380592634399946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03491094083149535</v>
+        <v>0.03529184144671931</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4228,19 +4228,19 @@
         <v>20425</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12938</v>
+        <v>13262</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31782</v>
+        <v>31010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02337215817282006</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01480524814192493</v>
+        <v>0.015176379918955</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0363687794339982</v>
+        <v>0.03548479873712869</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -4249,19 +4249,19 @@
         <v>40858</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29705</v>
+        <v>29481</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54959</v>
+        <v>55660</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02322774330608817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01688721132535144</v>
+        <v>0.01676008097724227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03124424270796963</v>
+        <v>0.03164324451037714</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>8357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3831</v>
+        <v>3880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17199</v>
+        <v>17693</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009441468297875795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004328233872049224</v>
+        <v>0.00438345058650364</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0194310943979838</v>
+        <v>0.01998978869283137</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4299,19 +4299,19 @@
         <v>7017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3019</v>
+        <v>3006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14231</v>
+        <v>14002</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008029568285376166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003455148275432397</v>
+        <v>0.003439794046288515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01628441694480232</v>
+        <v>0.01602227075421831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -4320,19 +4320,19 @@
         <v>15374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8375</v>
+        <v>8696</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25087</v>
+        <v>25833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008740026274177934</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004760985488830298</v>
+        <v>0.004943848805169505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01426196421667046</v>
+        <v>0.01468643053717429</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>306344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>284299</v>
+        <v>283147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>328620</v>
+        <v>327360</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6142780662510042</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5700737507193168</v>
+        <v>0.5677640369312311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6589472601168537</v>
+        <v>0.6564195213299476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>276</v>
@@ -4445,19 +4445,19 @@
         <v>301049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278850</v>
+        <v>280842</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319590</v>
+        <v>322610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6694346626932545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6200707085422744</v>
+        <v>0.6244992877161943</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7106616808760552</v>
+        <v>0.7173778094255419</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>558</v>
@@ -4466,19 +4466,19 @@
         <v>607392</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>573897</v>
+        <v>575463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>637239</v>
+        <v>638097</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6404315795695777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.60511381892924</v>
+        <v>0.6067649111762548</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6719019964989695</v>
+        <v>0.6728063201073333</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>118622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99803</v>
+        <v>101618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139029</v>
+        <v>140551</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2378598521451329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2001242888336027</v>
+        <v>0.2037637377382674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2787809870219679</v>
+        <v>0.281831870977335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -4516,19 +4516,19 @@
         <v>99297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>81929</v>
+        <v>82258</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118972</v>
+        <v>118469</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2208030286394303</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1821828480096433</v>
+        <v>0.1829147196034691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2645544990192434</v>
+        <v>0.2634367561176796</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>199</v>
@@ -4537,19 +4537,19 @@
         <v>217918</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>192495</v>
+        <v>188925</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>247567</v>
+        <v>244422</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2297720459804428</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2029658095732141</v>
+        <v>0.1992018482645794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2610335147771006</v>
+        <v>0.2577172755286491</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>55607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40923</v>
+        <v>41521</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71806</v>
+        <v>71358</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1115020019132332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08205933106923076</v>
+        <v>0.08325760483835153</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1439853033357483</v>
+        <v>0.1430867087894121</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4587,19 +4587,19 @@
         <v>30383</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20267</v>
+        <v>21178</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42504</v>
+        <v>43350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06756155712255504</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0450660320923833</v>
+        <v>0.04709258836610836</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09451397610605143</v>
+        <v>0.0963964642353724</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -4608,19 +4608,19 @@
         <v>85989</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68464</v>
+        <v>69197</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>105139</v>
+        <v>108381</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09066683291834655</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07218830352396512</v>
+        <v>0.07296090950595242</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1108583467754417</v>
+        <v>0.1142762122736567</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>15893</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8882</v>
+        <v>9067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26197</v>
+        <v>25299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03186804077816224</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01781028876732029</v>
+        <v>0.01818057192984846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05253078151853285</v>
+        <v>0.05072985620816358</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4658,19 +4658,19 @@
         <v>13873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6563</v>
+        <v>7289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23934</v>
+        <v>25117</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03084963300284496</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01459309429938278</v>
+        <v>0.01620791983569128</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05322027072740516</v>
+        <v>0.05585145960059155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -4679,19 +4679,19 @@
         <v>29766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20710</v>
+        <v>19708</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44615</v>
+        <v>42431</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03138514402539783</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02183676568852542</v>
+        <v>0.02078003050201351</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0470421203399792</v>
+        <v>0.04473895638170699</v>
       </c>
     </row>
     <row r="26">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8040</v>
+        <v>8164</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004492038912467441</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0161220470962179</v>
+        <v>0.01636966589661696</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4729,19 +4729,19 @@
         <v>5105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1960</v>
+        <v>1979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10675</v>
+        <v>11317</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01135111854191525</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004359023587564334</v>
+        <v>0.004399814795275868</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02373777672012401</v>
+        <v>0.02516516307504231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4750,19 +4750,19 @@
         <v>7345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3095</v>
+        <v>3287</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14850</v>
+        <v>14529</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00774439750623497</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003263810118539469</v>
+        <v>0.003465924505060339</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01565823414400628</v>
+        <v>0.01531943807406501</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1924887</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1862555</v>
+        <v>1868066</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1985297</v>
+        <v>1985757</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5665094151577458</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5481645771693996</v>
+        <v>0.5497863597087779</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.584288355524734</v>
+        <v>0.5844239221640392</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1703</v>
@@ -4875,19 +4875,19 @@
         <v>1836244</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1776556</v>
+        <v>1768684</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1898033</v>
+        <v>1896500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5198382533028975</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5029405096542948</v>
+        <v>0.5007120061231027</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5373306210168324</v>
+        <v>0.5368964618914209</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3518</v>
@@ -4896,19 +4896,19 @@
         <v>3761132</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3676140</v>
+        <v>3667752</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3846410</v>
+        <v>3843029</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.542720819760463</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.530456783695765</v>
+        <v>0.5292463782382246</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5550262199585896</v>
+        <v>0.5545382991400303</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>899489</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>846063</v>
+        <v>845622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>950942</v>
+        <v>952486</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2647267427201519</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2490030932066128</v>
+        <v>0.2488732404109046</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2798696495854058</v>
+        <v>0.2803240560267961</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>906</v>
@@ -4946,19 +4946,19 @@
         <v>969438</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>915561</v>
+        <v>913618</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1023553</v>
+        <v>1027464</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2744466672982047</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2591939142952484</v>
+        <v>0.2586438813460697</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2897664417469707</v>
+        <v>0.2908737434236295</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1750</v>
@@ -4967,19 +4967,19 @@
         <v>1868928</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1797178</v>
+        <v>1794767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1945824</v>
+        <v>1936621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2696810516314776</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2593278354527001</v>
+        <v>0.2589798282321557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2807769160951131</v>
+        <v>0.2794490352127198</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>408529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>371395</v>
+        <v>366517</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>453118</v>
+        <v>445336</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1202331855185301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1093043546954014</v>
+        <v>0.1078687000896249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1333561295889046</v>
+        <v>0.1310658792203953</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>443</v>
@@ -5017,19 +5017,19 @@
         <v>480728</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>441022</v>
+        <v>438030</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>524451</v>
+        <v>523254</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1360935339156086</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1248526878844391</v>
+        <v>0.1240056421172644</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1484712460368728</v>
+        <v>0.1481325528858603</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>814</v>
@@ -5038,19 +5038,19 @@
         <v>889257</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>834805</v>
+        <v>830106</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>950374</v>
+        <v>950360</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1283173084733317</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1204600312124393</v>
+        <v>0.1197820006429539</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1371362514403613</v>
+        <v>0.1371342922668393</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>127143</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>107188</v>
+        <v>107606</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>152763</v>
+        <v>151739</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03741911888243715</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03154634945318458</v>
+        <v>0.03166915617911961</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04495926096253968</v>
+        <v>0.0446580936041139</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>159</v>
@@ -5088,19 +5088,19 @@
         <v>175599</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149686</v>
+        <v>148899</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>201658</v>
+        <v>203872</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04971173309686488</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04237601694878356</v>
+        <v>0.04215308638963621</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05708901432373734</v>
+        <v>0.05771584581546645</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>278</v>
@@ -5109,19 +5109,19 @@
         <v>302741</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>267074</v>
+        <v>270066</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>339758</v>
+        <v>337678</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04368474447006175</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0385380012833225</v>
+        <v>0.03896977668767524</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04902613932866346</v>
+        <v>0.04872601517793593</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>37755</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26365</v>
+        <v>25360</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53259</v>
+        <v>52568</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01111153772113518</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007759307341343577</v>
+        <v>0.007463632201347463</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01567444655957784</v>
+        <v>0.01547122737481926</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -5159,19 +5159,19 @@
         <v>70328</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>54001</v>
+        <v>52811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>88671</v>
+        <v>87976</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01990981238642447</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01528774137264741</v>
+        <v>0.01495064999162581</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02510266528531511</v>
+        <v>0.02490596225002248</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>97</v>
@@ -5180,19 +5180,19 @@
         <v>108083</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>87775</v>
+        <v>88543</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>131566</v>
+        <v>132288</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01559607566466587</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01266564342877987</v>
+        <v>0.01277646727101962</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.018984654516169</v>
+        <v>0.01908878471997707</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>442866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>407822</v>
+        <v>412665</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>478038</v>
+        <v>478409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3929773941071891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3618807880931013</v>
+        <v>0.3661784406152995</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4241867072012935</v>
+        <v>0.4245161590254551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -5545,19 +5545,19 @@
         <v>540710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>505630</v>
+        <v>504671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>577513</v>
+        <v>575427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4313199463952363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4033364682360792</v>
+        <v>0.4025714493699942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4606772026275457</v>
+        <v>0.4590131506568484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>941</v>
@@ -5566,19 +5566,19 @@
         <v>983576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>934406</v>
+        <v>936493</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1029548</v>
+        <v>1036717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4131687489956103</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3925139433000134</v>
+        <v>0.3933907483311934</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4324798277703844</v>
+        <v>0.4354913597373185</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>398795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>367042</v>
+        <v>367836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435124</v>
+        <v>431742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3538710259510626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3256950924387541</v>
+        <v>0.3263996527821342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3861076361696307</v>
+        <v>0.3831064760131266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>374</v>
@@ -5616,19 +5616,19 @@
         <v>395053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>363309</v>
+        <v>363918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429158</v>
+        <v>429123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3151304003182719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2898086944329349</v>
+        <v>0.290293870956839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3423354852620316</v>
+        <v>0.3423073231751808</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>752</v>
@@ -5637,19 +5637,19 @@
         <v>793848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744782</v>
+        <v>744435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>841542</v>
+        <v>841831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3334700439070219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3128590899236321</v>
+        <v>0.3127131164722425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3535045371906907</v>
+        <v>0.3536262582626847</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>184086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>159204</v>
+        <v>160677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>210311</v>
+        <v>211805</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1633483613901747</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.141270013471773</v>
+        <v>0.1425771638774083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.186619853362612</v>
+        <v>0.1879449498835685</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -5687,19 +5687,19 @@
         <v>216364</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>188887</v>
+        <v>192048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>244039</v>
+        <v>245572</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1725914346763746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1506732831790043</v>
+        <v>0.153195377057402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1946675551712916</v>
+        <v>0.1958907512282603</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>368</v>
@@ -5708,19 +5708,19 @@
         <v>400449</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>364092</v>
+        <v>364952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>440231</v>
+        <v>436648</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1682158040053479</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1529433862631702</v>
+        <v>0.1533044379951628</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1849270083593814</v>
+        <v>0.1834219129652285</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>75122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57957</v>
+        <v>59249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92130</v>
+        <v>94462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0666593208786133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05142845106962182</v>
+        <v>0.05257485569716132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08175114215067396</v>
+        <v>0.08382122519934505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -5758,19 +5758,19 @@
         <v>76924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60489</v>
+        <v>60165</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97448</v>
+        <v>97015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06136165882585513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04825160243152767</v>
+        <v>0.04799302473094905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07773322371928004</v>
+        <v>0.07738771254608719</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -5779,19 +5779,19 @@
         <v>152046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130907</v>
+        <v>128460</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178244</v>
+        <v>177844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06386954898803658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05498963109482033</v>
+        <v>0.05396182506191784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07487455359260271</v>
+        <v>0.07470661354843612</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>26082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17979</v>
+        <v>17432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38984</v>
+        <v>38591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02314389767296029</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01595399895641046</v>
+        <v>0.01546795538580408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03459253311994115</v>
+        <v>0.03424362295992089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -5829,19 +5829,19 @@
         <v>24567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15338</v>
+        <v>16126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36800</v>
+        <v>37232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01959655978426205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01223468339870927</v>
+        <v>0.01286324622828563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02935490821000298</v>
+        <v>0.02969931278145172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -5850,19 +5850,19 @@
         <v>50649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37786</v>
+        <v>37803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70768</v>
+        <v>68116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02127585410398335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01587287436312671</v>
+        <v>0.01587962738093569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02972730978631662</v>
+        <v>0.02861316608691788</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>408883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>379101</v>
+        <v>380713</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>437225</v>
+        <v>439522</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4511222731076655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4182630864769831</v>
+        <v>0.4200421762556827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4823923623566692</v>
+        <v>0.4849257798731803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>442</v>
@@ -5975,19 +5975,19 @@
         <v>459112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>427223</v>
+        <v>425693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>488974</v>
+        <v>489174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4587883017278876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4269221238444877</v>
+        <v>0.4253935003355891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4886298623271311</v>
+        <v>0.4888292377498246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>840</v>
@@ -5996,19 +5996,19 @@
         <v>867995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>829054</v>
+        <v>822963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>913737</v>
+        <v>910280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4551448930156166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4347258826610441</v>
+        <v>0.4315320243330962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4791305799810276</v>
+        <v>0.4773178194345736</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>324219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295915</v>
+        <v>296096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356101</v>
+        <v>352139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3577118411176195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3264836956062217</v>
+        <v>0.3266836653803388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3928876765283327</v>
+        <v>0.3885166860806091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -6046,19 +6046,19 @@
         <v>334240</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306070</v>
+        <v>303557</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>364699</v>
+        <v>364189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3340044516013219</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3058547947074393</v>
+        <v>0.3033428925411369</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3644419753717345</v>
+        <v>0.3639322690351217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -6067,19 +6067,19 @@
         <v>658459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>615850</v>
+        <v>617335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>698914</v>
+        <v>700275</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3452717862002344</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3229294024397513</v>
+        <v>0.3237079485818478</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3664852459452449</v>
+        <v>0.3671990910482904</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>145064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122860</v>
+        <v>123886</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>169227</v>
+        <v>168667</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1600493089931133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1355514152941655</v>
+        <v>0.1366834084621656</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1867084315575462</v>
+        <v>0.1860911496473032</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -6117,19 +6117,19 @@
         <v>162284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>140865</v>
+        <v>139718</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187576</v>
+        <v>185401</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1621695672892537</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1407659811809851</v>
+        <v>0.1396191273899187</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1874436947791183</v>
+        <v>0.1852702189053327</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>286</v>
@@ -6138,19 +6138,19 @@
         <v>307347</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279576</v>
+        <v>274988</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341244</v>
+        <v>338917</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1611618789631176</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.14659951547926</v>
+        <v>0.1441935693014899</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1789358168754908</v>
+        <v>0.1777156137490185</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>24395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15558</v>
+        <v>15287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35695</v>
+        <v>35716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02691544395229221</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01716540832529731</v>
+        <v>0.01686600938708626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03938271782838839</v>
+        <v>0.03940601934297259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -6188,19 +6188,19 @@
         <v>38390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27605</v>
+        <v>27122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52350</v>
+        <v>51979</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03836315604615177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02758569954135399</v>
+        <v>0.02710242761096526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05231297295269561</v>
+        <v>0.05194229488036152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -6209,19 +6209,19 @@
         <v>62785</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48911</v>
+        <v>47164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80177</v>
+        <v>79197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03292243881894031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.025647204748431</v>
+        <v>0.02473100525351881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04204212093499413</v>
+        <v>0.04152778623034631</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>3808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8795</v>
+        <v>9493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004201132829309471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001082254579250972</v>
+        <v>0.001096756932638178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009703786145511397</v>
+        <v>0.0104732721491583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6259,19 +6259,19 @@
         <v>6679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3150</v>
+        <v>2304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14325</v>
+        <v>13827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006674523335384917</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003147325425331092</v>
+        <v>0.002302401733106839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01431441588939583</v>
+        <v>0.01381736645138125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -6280,19 +6280,19 @@
         <v>10487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5190</v>
+        <v>5319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19968</v>
+        <v>18493</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005499003002091056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002721496018620232</v>
+        <v>0.002788997775244147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01047046473194704</v>
+        <v>0.009696873374944872</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>418203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389426</v>
+        <v>391101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449533</v>
+        <v>449658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5095395017451093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4744776691261361</v>
+        <v>0.4765180910752638</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5477116907793169</v>
+        <v>0.5478643899692809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -6405,19 +6405,19 @@
         <v>368634</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>342539</v>
+        <v>341422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>393791</v>
+        <v>398185</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4780878516200768</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4442444904748892</v>
+        <v>0.4427956164280732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5107142725162592</v>
+        <v>0.5164126164760524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>759</v>
@@ -6426,19 +6426,19 @@
         <v>786836</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>747653</v>
+        <v>744563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>826491</v>
+        <v>824450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4943045553957274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4696885906194891</v>
+        <v>0.4677478593552645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5192163974013173</v>
+        <v>0.5179341118495283</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>278130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250760</v>
+        <v>246904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>306943</v>
+        <v>303506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3388739812034138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3055262566270056</v>
+        <v>0.3008289022884689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3739795843632485</v>
+        <v>0.3697922480476589</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>241</v>
@@ -6476,19 +6476,19 @@
         <v>259408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>232416</v>
+        <v>233490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>288354</v>
+        <v>287253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.33643083042006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3014242443007397</v>
+        <v>0.3028167064425591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3739710333589256</v>
+        <v>0.3725431830417293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>506</v>
@@ -6497,19 +6497,19 @@
         <v>537537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>499423</v>
+        <v>503198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>574288</v>
+        <v>582882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3376905370610596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3137463060959791</v>
+        <v>0.3161179820107674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.360777591976322</v>
+        <v>0.3661765092273483</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>107675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88334</v>
+        <v>89431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126995</v>
+        <v>128779</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1311917791876451</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1076268402904838</v>
+        <v>0.1089625565886751</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1547305105911307</v>
+        <v>0.156904118742375</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>104</v>
@@ -6547,19 +6547,19 @@
         <v>114179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94663</v>
+        <v>95868</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>135837</v>
+        <v>137390</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1480809932456546</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1227696077171242</v>
+        <v>0.124332787851863</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.176169219104436</v>
+        <v>0.1781837426056557</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>204</v>
@@ -6568,19 +6568,19 @@
         <v>221854</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>195104</v>
+        <v>194210</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>250156</v>
+        <v>251825</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1393727893742048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1225679114276119</v>
+        <v>0.1220059024571713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.157152486498071</v>
+        <v>0.1582007321442276</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>15703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9517</v>
+        <v>9289</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25200</v>
+        <v>25027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01913217787068033</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01159527366303008</v>
+        <v>0.01131810097254553</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03070420544658952</v>
+        <v>0.03049353593193145</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -6618,19 +6618,19 @@
         <v>22202</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13276</v>
+        <v>13471</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34077</v>
+        <v>32643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02879460994276253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0172176222197336</v>
+        <v>0.01747015071727181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04419506480782893</v>
+        <v>0.04233540789564413</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -6639,19 +6639,19 @@
         <v>37905</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25695</v>
+        <v>26403</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51277</v>
+        <v>52995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02381258839405563</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01614208948497707</v>
+        <v>0.01658681614501516</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03221284019345521</v>
+        <v>0.03329260868613808</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5221</v>
+        <v>5235</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001262559993151385</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006360953163103621</v>
+        <v>0.006377858282862334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6689,19 +6689,19 @@
         <v>6636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2422</v>
+        <v>1958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15954</v>
+        <v>15006</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008605714771446074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003140567052711668</v>
+        <v>0.002539018383897584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02069039482393099</v>
+        <v>0.01946144214583815</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -6710,19 +6710,19 @@
         <v>7672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2686</v>
+        <v>2431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15772</v>
+        <v>15441</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00481952977495268</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001687182704342889</v>
+        <v>0.001527373089859029</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009908159437118685</v>
+        <v>0.009700595885519055</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>297870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>274617</v>
+        <v>275603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>319327</v>
+        <v>319324</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5878607789985766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5419708625675016</v>
+        <v>0.543915538857175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6302078119729542</v>
+        <v>0.6302025390978556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -6835,19 +6835,19 @@
         <v>279603</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256482</v>
+        <v>256928</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301504</v>
+        <v>303328</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5720621932139844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5247569240837093</v>
+        <v>0.5256701022179933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6168723483665207</v>
+        <v>0.6206027062212142</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>539</v>
@@ -6856,19 +6856,19 @@
         <v>577472</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>545036</v>
+        <v>541332</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>610017</v>
+        <v>606909</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5801038276302172</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5475196198322683</v>
+        <v>0.5437982492970098</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6127963559932312</v>
+        <v>0.6096744649607251</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>133862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113679</v>
+        <v>114863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>155979</v>
+        <v>153794</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2641842494740439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2243519367069622</v>
+        <v>0.2266878476360394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3078323901590591</v>
+        <v>0.3035197439835302</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -6906,19 +6906,19 @@
         <v>141227</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>121909</v>
+        <v>122088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>163184</v>
+        <v>164282</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2889471444219733</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.249423183187076</v>
+        <v>0.2497892182837249</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3338722555446029</v>
+        <v>0.3361170043225549</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>254</v>
@@ -6927,19 +6927,19 @@
         <v>275089</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>247515</v>
+        <v>247265</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>307389</v>
+        <v>305235</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2763425891172172</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2486424640799056</v>
+        <v>0.2483918785837808</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3087894046904933</v>
+        <v>0.3066258095528248</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>60716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47494</v>
+        <v>47531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>78214</v>
+        <v>77988</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1198267526991376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09373255737696229</v>
+        <v>0.09380530208438975</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1543599742679241</v>
+        <v>0.1539129884439257</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -6977,19 +6977,19 @@
         <v>48717</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36945</v>
+        <v>36902</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63982</v>
+        <v>62704</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09967357820247397</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07558816493360802</v>
+        <v>0.07550124166552609</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1309050547997727</v>
+        <v>0.1282911825832309</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -6998,19 +6998,19 @@
         <v>109433</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>91786</v>
+        <v>88380</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131462</v>
+        <v>130406</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1099317407898348</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09220411115540456</v>
+        <v>0.08878295580504134</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1320609400495712</v>
+        <v>0.131000608843089</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>9101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4308</v>
+        <v>3982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18408</v>
+        <v>17849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01796129913693109</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008502953520176821</v>
+        <v>0.007859079934370607</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03632980217604766</v>
+        <v>0.03522627790770272</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -7048,19 +7048,19 @@
         <v>14687</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8073</v>
+        <v>8161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24986</v>
+        <v>26113</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03005021749065809</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01651631934962277</v>
+        <v>0.01669695862570741</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05112082533598924</v>
+        <v>0.05342612512028494</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -7069,19 +7069,19 @@
         <v>23788</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14858</v>
+        <v>15152</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36303</v>
+        <v>37106</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02389684001663323</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01492614005646415</v>
+        <v>0.01522054261214114</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03646828582806329</v>
+        <v>0.03727540864654091</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>5152</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1703</v>
+        <v>1673</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11144</v>
+        <v>11318</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01016691969131088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003361754965337817</v>
+        <v>0.003302065771247751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02199275313682332</v>
+        <v>0.02233704935725984</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7119,19 +7119,19 @@
         <v>4529</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1031</v>
+        <v>1204</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10367</v>
+        <v>10844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009266866670910295</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002109169025176235</v>
+        <v>0.002463083099903221</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02120986192102333</v>
+        <v>0.02218681666074819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -7140,19 +7140,19 @@
         <v>9681</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4538</v>
+        <v>4850</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17458</v>
+        <v>18222</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009725002446097621</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004558974163071172</v>
+        <v>0.004872153568051075</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01753741879952193</v>
+        <v>0.01830527383907706</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1567822</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1505484</v>
+        <v>1513490</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1625969</v>
+        <v>1629404</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4665071134537</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4479584547604331</v>
+        <v>0.4503406003104741</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4838089891932197</v>
+        <v>0.4848310239190662</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1583</v>
@@ -7265,19 +7265,19 @@
         <v>1648059</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1593780</v>
+        <v>1588233</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1712930</v>
+        <v>1708095</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4689786553939103</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.453532826439734</v>
+        <v>0.4519544617012794</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4874387783952241</v>
+        <v>0.4860630158906202</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3079</v>
@@ -7286,19 +7286,19 @@
         <v>3215880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3133580</v>
+        <v>3132040</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3289543</v>
+        <v>3294202</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4677704541367569</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4557993811297384</v>
+        <v>0.4555753807663205</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4784851728809685</v>
+        <v>0.4791628680376628</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1135006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1080344</v>
+        <v>1082576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1188831</v>
+        <v>1192871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3377223453327747</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3214576132111939</v>
+        <v>0.3221217205598453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3537379774146929</v>
+        <v>0.3549400055814084</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1058</v>
@@ -7336,19 +7336,19 @@
         <v>1129927</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1072863</v>
+        <v>1072876</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1187384</v>
+        <v>1190202</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3215370317952179</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3052985424912892</v>
+        <v>0.3053022449992773</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3378871162147968</v>
+        <v>0.3386891138588217</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2141</v>
@@ -7357,19 +7357,19 @@
         <v>2264934</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2189227</v>
+        <v>2187059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2341255</v>
+        <v>2347895</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3294491436009492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3184372121898968</v>
+        <v>0.3181217569427247</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3405505505607767</v>
+        <v>0.3415163925405981</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>497541</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>456583</v>
+        <v>453808</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>540015</v>
+        <v>538355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1480438173977632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1358567129611259</v>
+        <v>0.135031111326627</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.16068202791532</v>
+        <v>0.1601882564517421</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>495</v>
@@ -7407,19 +7407,19 @@
         <v>541543</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>498484</v>
+        <v>498142</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>585956</v>
+        <v>588668</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1541039290941093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1418506748714073</v>
+        <v>0.1417534798610279</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1667421056349092</v>
+        <v>0.1675139679856807</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>961</v>
@@ -7428,19 +7428,19 @@
         <v>1039084</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>974568</v>
+        <v>975388</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1099662</v>
+        <v>1098848</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1511414729646404</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1417571999802895</v>
+        <v>0.1418765196528714</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1599529319288604</v>
+        <v>0.1598345135902645</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>124321</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>103565</v>
+        <v>103619</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147298</v>
+        <v>150063</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03699178256846899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03081580767208657</v>
+        <v>0.0308320081938638</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04382865409008227</v>
+        <v>0.04465151171832026</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>138</v>
@@ -7478,19 +7478,19 @@
         <v>152204</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>129567</v>
+        <v>131698</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176695</v>
+        <v>181483</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04331183131182745</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03687019394161916</v>
+        <v>0.03747655495972174</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05028110830226703</v>
+        <v>0.05164365391564907</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>258</v>
@@ -7499,19 +7499,19 @@
         <v>276525</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>243941</v>
+        <v>246230</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>312012</v>
+        <v>309816</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04022230622112773</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03548276898819702</v>
+        <v>0.03581579676928345</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04538409206381672</v>
+        <v>0.04506479965527788</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>36078</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25379</v>
+        <v>25217</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49644</v>
+        <v>51320</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01073494124729314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007551639268357584</v>
+        <v>0.00750335475569922</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0147717598905924</v>
+        <v>0.01527024496299154</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -7549,19 +7549,19 @@
         <v>42411</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>30227</v>
+        <v>29540</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>58987</v>
+        <v>56851</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01206855240493509</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008601434360203544</v>
+        <v>0.008405989127785429</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01678571671663774</v>
+        <v>0.01617773124659871</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -7570,19 +7570,19 @@
         <v>78488</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61751</v>
+        <v>60813</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>98411</v>
+        <v>101286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01141662307652576</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008982146209303292</v>
+        <v>0.00884569335263167</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01431444617190951</v>
+        <v>0.0147326935440234</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>193971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168783</v>
+        <v>171279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219057</v>
+        <v>219673</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.38892294307395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.338420240988156</v>
+        <v>0.3434247616003211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.439221210341321</v>
+        <v>0.4404569532271728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>308</v>
@@ -7935,19 +7935,19 @@
         <v>241769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221821</v>
+        <v>218594</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266476</v>
+        <v>263744</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3884160632340786</v>
+        <v>0.3884160632340787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3563683495497268</v>
+        <v>0.3511836389687598</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4281098443121423</v>
+        <v>0.4237198829366302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>471</v>
@@ -7956,19 +7956,19 @@
         <v>435740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>402744</v>
+        <v>402520</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>472080</v>
+        <v>469184</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3886415392739786</v>
+        <v>0.3886415392739787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3592118480564499</v>
+        <v>0.3590121102021446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4210531212147012</v>
+        <v>0.4184706922284809</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>128773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109440</v>
+        <v>107129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152728</v>
+        <v>152605</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2581974049895087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2194338877613746</v>
+        <v>0.2148006524911776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.306227944623725</v>
+        <v>0.3059808329824567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -8006,19 +8006,19 @@
         <v>166673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147972</v>
+        <v>147212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187020</v>
+        <v>187861</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2677705535084091</v>
+        <v>0.2677705535084092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2377265151590087</v>
+        <v>0.2365043768567162</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3004583166176527</v>
+        <v>0.3018104830690448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>343</v>
@@ -8027,19 +8027,19 @@
         <v>295447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262883</v>
+        <v>263318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324136</v>
+        <v>323999</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2635121169961899</v>
+        <v>0.26351211699619</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2344679677964272</v>
+        <v>0.2348564748164206</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2891005703515238</v>
+        <v>0.2889783952287128</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>91643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75035</v>
+        <v>72383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111979</v>
+        <v>110579</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.183748431871499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1504492816401926</v>
+        <v>0.1451322934270513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2245250657160784</v>
+        <v>0.221717516621652</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -8077,19 +8077,19 @@
         <v>110928</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95491</v>
+        <v>94708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125915</v>
+        <v>126647</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1782130065990676</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1534125518535143</v>
+        <v>0.1521543473741432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2022902337019226</v>
+        <v>0.2034654455750165</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>256</v>
@@ -8098,19 +8098,19 @@
         <v>202571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>178609</v>
+        <v>178151</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>227214</v>
+        <v>229126</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1806753372569742</v>
+        <v>0.1806753372569743</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1593032351771471</v>
+        <v>0.1588944051694638</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2026543078469099</v>
+        <v>0.2043597711997549</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>60219</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45489</v>
+        <v>46842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78247</v>
+        <v>78384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1207427682301434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0912072753169709</v>
+        <v>0.09392150491838921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1568897634851578</v>
+        <v>0.1571653466228607</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -8148,19 +8148,19 @@
         <v>60301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48934</v>
+        <v>49871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72982</v>
+        <v>74793</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09687649585045303</v>
+        <v>0.09687649585045306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07861538343648324</v>
+        <v>0.08012137658994892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.117250235863597</v>
+        <v>0.1201595289930102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>156</v>
@@ -8169,19 +8169,19 @@
         <v>120520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102812</v>
+        <v>100920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143252</v>
+        <v>142952</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1074929618450613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09169891039063692</v>
+        <v>0.09001197420655552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1277682352118357</v>
+        <v>0.1275008242173954</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>24133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15972</v>
+        <v>16118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34806</v>
+        <v>35472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04838845183489895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03202478459997017</v>
+        <v>0.03231728767381207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06978781596035873</v>
+        <v>0.07112281928145643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -8219,19 +8219,19 @@
         <v>42777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32841</v>
+        <v>32914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>57550</v>
+        <v>57218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06872388080799147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05276061517244887</v>
+        <v>0.05287892783350997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09245747301982181</v>
+        <v>0.09192470742152084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -8240,19 +8240,19 @@
         <v>66910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53877</v>
+        <v>54180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>84077</v>
+        <v>84300</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05967804462779574</v>
+        <v>0.05967804462779576</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0480531555293465</v>
+        <v>0.04832385241337772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07498928243145903</v>
+        <v>0.07518834637034648</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>412164</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>379150</v>
+        <v>376655</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>446426</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4313747422309253</v>
+        <v>0.4313747422309254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3968219847650683</v>
+        <v>0.394209924953726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4672334388597297</v>
+        <v>0.4672333255317978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>657</v>
@@ -8365,19 +8365,19 @@
         <v>471301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>441046</v>
+        <v>440950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>499630</v>
+        <v>501254</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4229181473572969</v>
+        <v>0.422918147357297</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3957689382343203</v>
+        <v>0.3956830984322923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4483392330877579</v>
+        <v>0.4497963393377499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1019</v>
@@ -8386,19 +8386,19 @@
         <v>883465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>836826</v>
+        <v>837663</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>925955</v>
+        <v>929278</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4268217756989966</v>
+        <v>0.4268217756989967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4042893626095763</v>
+        <v>0.4046937474925022</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4473494998160087</v>
+        <v>0.448955022230323</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>335081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305988</v>
+        <v>300847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>369094</v>
+        <v>364421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3506983445170661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.320249535251923</v>
+        <v>0.3148687115751147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3862970369153991</v>
+        <v>0.3814060418067403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>534</v>
@@ -8436,19 +8436,19 @@
         <v>381729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>358254</v>
+        <v>351626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>413463</v>
+        <v>409082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3425417259103556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3214766662732526</v>
+        <v>0.3155284613405286</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3710180621195752</v>
+        <v>0.3670866233502829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>852</v>
@@ -8457,19 +8457,19 @@
         <v>716810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>672041</v>
+        <v>670508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>758666</v>
+        <v>756846</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.346306882931757</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.324678078858574</v>
+        <v>0.3239375887075112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3665287287820456</v>
+        <v>0.3656491761240416</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>147739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125480</v>
+        <v>125517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173629</v>
+        <v>175843</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1546248498917673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1313287253845273</v>
+        <v>0.1313673643924194</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1817218267337361</v>
+        <v>0.1840384224084384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>296</v>
@@ -8507,19 +8507,19 @@
         <v>190710</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>171423</v>
+        <v>169748</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>213514</v>
+        <v>213543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1711322769072295</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1538255353554286</v>
+        <v>0.1523216545632649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1915951374640709</v>
+        <v>0.1916210074427165</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>449</v>
@@ -8528,19 +8528,19 @@
         <v>338449</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>308875</v>
+        <v>308413</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>368677</v>
+        <v>373422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1635123233787656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1492244252042013</v>
+        <v>0.1490012863602894</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1781160727706149</v>
+        <v>0.1804086938932447</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>44770</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33696</v>
+        <v>33343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58666</v>
+        <v>58390</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04685615014337577</v>
+        <v>0.04685615014337578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0352663099971826</v>
+        <v>0.03489717022885699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06140039124770923</v>
+        <v>0.06111171836806017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -8578,19 +8578,19 @@
         <v>49686</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39709</v>
+        <v>40280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60716</v>
+        <v>61465</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04458578147365239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03563248053273123</v>
+        <v>0.03614487709503249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05448320867644825</v>
+        <v>0.05515492973049124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -8599,19 +8599,19 @@
         <v>94456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78960</v>
+        <v>79176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113086</v>
+        <v>112149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04563380087362116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03814727180389905</v>
+        <v>0.03825149466570969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05463420080758768</v>
+        <v>0.05418173869445167</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>15714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9613</v>
+        <v>9242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26228</v>
+        <v>25928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01644591321686544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01006058394783984</v>
+        <v>0.009672602155734967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02745011519682612</v>
+        <v>0.02713648160921701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -8649,19 +8649,19 @@
         <v>20975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14409</v>
+        <v>14709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28943</v>
+        <v>29285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01882206835146534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01292975807215582</v>
+        <v>0.01319882213653501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.025971776922092</v>
+        <v>0.02627855901335205</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -8670,19 +8670,19 @@
         <v>36689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27250</v>
+        <v>27746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48554</v>
+        <v>51201</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01772521711685969</v>
+        <v>0.0177252171168597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0131652025817245</v>
+        <v>0.01340483017578414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02345740204023484</v>
+        <v>0.0247363843350467</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>614827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>582189</v>
+        <v>581408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>649489</v>
+        <v>644521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5875201254068639</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5563310532545259</v>
+        <v>0.5555851906993321</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6206426161056885</v>
+        <v>0.6158947868113297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>857</v>
@@ -8795,19 +8795,19 @@
         <v>614291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>587288</v>
+        <v>586007</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>639594</v>
+        <v>640077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.58913346203971</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5632371225359887</v>
+        <v>0.5620085818748597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6134002449523288</v>
+        <v>0.6138633775543668</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1420</v>
@@ -8816,19 +8816,19 @@
         <v>1229119</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1184277</v>
+        <v>1188746</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1273100</v>
+        <v>1275324</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5883253354573662</v>
+        <v>0.5883253354573661</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5668617143025265</v>
+        <v>0.5690005496086863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6093773270855095</v>
+        <v>0.6104415872897788</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>329117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>297524</v>
+        <v>300762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>359378</v>
+        <v>362670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3144996530459215</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2843096011777629</v>
+        <v>0.2874041454275033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.343416067914371</v>
+        <v>0.3465623203669689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>468</v>
@@ -8866,19 +8866,19 @@
         <v>316217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>288866</v>
+        <v>292915</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341942</v>
+        <v>344914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3032666261884363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2770356213678072</v>
+        <v>0.2809192949848361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3279382698458037</v>
+        <v>0.330788980425225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>819</v>
@@ -8887,19 +8887,19 @@
         <v>645334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>606683</v>
+        <v>607112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>687258</v>
+        <v>685558</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.308893292947811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2903927064000385</v>
+        <v>0.2905977637832137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3289603798382554</v>
+        <v>0.3281466648821217</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>86493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70094</v>
+        <v>69895</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105568</v>
+        <v>106409</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08265161190855443</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06698063126177616</v>
+        <v>0.0667906846902806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1008790490298467</v>
+        <v>0.1016830452607141</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -8937,19 +8937,19 @@
         <v>75165</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62930</v>
+        <v>61476</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89387</v>
+        <v>90390</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07208641746029726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06035287558451657</v>
+        <v>0.05895845602286924</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0857259666180822</v>
+        <v>0.08668826179385881</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>214</v>
@@ -8958,19 +8958,19 @@
         <v>161658</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139388</v>
+        <v>139452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>183415</v>
+        <v>186164</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0773785643733732</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06671907091325219</v>
+        <v>0.06674967359189346</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0877925591867505</v>
+        <v>0.0891085176559957</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>11448</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6531</v>
+        <v>6630</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18617</v>
+        <v>18574</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01093976031511957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006241178483379271</v>
+        <v>0.006335295760758382</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01779000696065979</v>
+        <v>0.01774871996835137</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -9008,19 +9008,19 @@
         <v>28438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21736</v>
+        <v>21423</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37926</v>
+        <v>36929</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02727304463175357</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02084557959994634</v>
+        <v>0.02054527694055381</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.036372477241433</v>
+        <v>0.03541619375365898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -9029,19 +9029,19 @@
         <v>39886</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31503</v>
+        <v>29930</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51286</v>
+        <v>50745</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01909163911195972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01507920031096363</v>
+        <v>0.01432637368143293</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02454818399135308</v>
+        <v>0.02428945364489695</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>4593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1820</v>
+        <v>1562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11569</v>
+        <v>10755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00438884932354065</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001738942180165016</v>
+        <v>0.001492212667557583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0110554897752835</v>
+        <v>0.01027729389818353</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -9079,19 +9079,19 @@
         <v>8592</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4880</v>
+        <v>4836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14300</v>
+        <v>14804</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0082404496798029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004680596648438451</v>
+        <v>0.004637529232823867</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01371439696295456</v>
+        <v>0.01419761398072178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -9100,19 +9100,19 @@
         <v>13185</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7573</v>
+        <v>7901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20968</v>
+        <v>21183</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006311168109489926</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003624897488290996</v>
+        <v>0.003781916526888321</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01003651176688362</v>
+        <v>0.01013918210909515</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>645045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>613330</v>
+        <v>611558</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>676916</v>
+        <v>675764</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6614534434772059</v>
+        <v>0.6614534434772058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6289317744039283</v>
+        <v>0.6271139469777572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6941344722228007</v>
+        <v>0.6929535786904102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>829</v>
@@ -9225,19 +9225,19 @@
         <v>610062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>585871</v>
+        <v>581755</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>634499</v>
+        <v>632854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6721358801066555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6454830240210279</v>
+        <v>0.6409484362208955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6990593281076599</v>
+        <v>0.6972471389599867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1416</v>
@@ -9246,19 +9246,19 @@
         <v>1255108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1219390</v>
+        <v>1215169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1292326</v>
+        <v>1296772</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6666030445993344</v>
+        <v>0.6666030445993345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6476327320927648</v>
+        <v>0.6453906777256873</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6863697769559406</v>
+        <v>0.6887312632782746</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>249387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>220299</v>
+        <v>219913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>279598</v>
+        <v>279470</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2557306156638813</v>
+        <v>0.2557306156638812</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2259026570130024</v>
+        <v>0.2255065501579795</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2867097564087672</v>
+        <v>0.2865785200502996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>393</v>
@@ -9296,19 +9296,19 @@
         <v>234173</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>213649</v>
+        <v>213023</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>260047</v>
+        <v>257399</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2579999907760028</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2353873302442797</v>
+        <v>0.2346975755560238</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2865069519932343</v>
+        <v>0.2835891438957148</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>664</v>
@@ -9317,19 +9317,19 @@
         <v>483560</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>448060</v>
+        <v>448122</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521330</v>
+        <v>522211</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2568245960944971</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.23796990678688</v>
+        <v>0.2380029412086602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2768846724784385</v>
+        <v>0.2773524855577332</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>48871</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36523</v>
+        <v>37002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>64154</v>
+        <v>63513</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0501146100113755</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03745242097219921</v>
+        <v>0.03794299287363197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06578625699930782</v>
+        <v>0.06512877745076201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -9367,19 +9367,19 @@
         <v>33727</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25188</v>
+        <v>25126</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45111</v>
+        <v>45166</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03715866478565068</v>
+        <v>0.03715866478565069</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02775131728121009</v>
+        <v>0.02768247932625347</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04970084563537988</v>
+        <v>0.04976163987306104</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>104</v>
@@ -9388,19 +9388,19 @@
         <v>82598</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67043</v>
+        <v>68207</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100121</v>
+        <v>101211</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04386903586130763</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03560707849265075</v>
+        <v>0.03622578802393835</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05317530631056483</v>
+        <v>0.05375464053267345</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>25400</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16509</v>
+        <v>17227</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40256</v>
+        <v>36959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02604560698694633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01692924592620201</v>
+        <v>0.01766502674828391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0412801064298275</v>
+        <v>0.03789924650207713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -9438,19 +9438,19 @@
         <v>22506</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15977</v>
+        <v>15948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30796</v>
+        <v>30357</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02479564570355672</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01760308628602099</v>
+        <v>0.01757078277257929</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03392978084199018</v>
+        <v>0.03344558576854861</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -9459,19 +9459,19 @@
         <v>47905</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36150</v>
+        <v>36552</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64382</v>
+        <v>63441</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02544304764109304</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0191999272152823</v>
+        <v>0.01941336801895032</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0341941106078992</v>
+        <v>0.0336940457056261</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>6491</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2929</v>
+        <v>3283</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11960</v>
+        <v>11950</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.006655723860591115</v>
+        <v>0.006655723860591113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003003676946177146</v>
+        <v>0.003366043928249152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01226382817898373</v>
+        <v>0.01225403840095399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -9509,19 +9509,19 @@
         <v>7179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3833</v>
+        <v>3622</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12851</v>
+        <v>13373</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007909818628134264</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004222620413644217</v>
+        <v>0.003990122958300043</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01415814589498791</v>
+        <v>0.01473387959485194</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -9530,19 +9530,19 @@
         <v>13670</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8545</v>
+        <v>8507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20861</v>
+        <v>20869</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007260275803767818</v>
+        <v>0.007260275803767817</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004538161891244617</v>
+        <v>0.004518018124926959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01107948714632062</v>
+        <v>0.01108369885705789</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1866009</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1801673</v>
+        <v>1801216</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1928534</v>
+        <v>1933474</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5368449949651396</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5183357967588833</v>
+        <v>0.518204442137719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5548331897061974</v>
+        <v>0.5562544569873954</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2651</v>
@@ -9655,19 +9655,19 @@
         <v>1937423</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1880088</v>
+        <v>1882234</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1990636</v>
+        <v>1994260</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5254455799403738</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5098957700841045</v>
+        <v>0.5104779606680399</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5398773623872568</v>
+        <v>0.5408603309995533</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4326</v>
@@ -9676,19 +9676,19 @@
         <v>3803432</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3719963</v>
+        <v>3726251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3882222</v>
+        <v>3886776</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5309771393306657</v>
+        <v>0.5309771393306658</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5193244464160914</v>
+        <v>0.5202023610384613</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5419766199442917</v>
+        <v>0.542612409457621</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1042358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>989928</v>
+        <v>984931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1097293</v>
+        <v>1103893</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2998832942248031</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2847993445074336</v>
+        <v>0.2833615149210824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3156877058858298</v>
+        <v>0.3175865464866996</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1621</v>
@@ -9726,19 +9726,19 @@
         <v>1098792</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1050931</v>
+        <v>1051159</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1148721</v>
+        <v>1147739</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2980018314426968</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2850213913720775</v>
+        <v>0.2850831422156788</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.311542858562003</v>
+        <v>0.3112765497642924</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2678</v>
@@ -9747,19 +9747,19 @@
         <v>2141151</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2067648</v>
+        <v>2065491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2217294</v>
+        <v>2214443</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2989148101435542</v>
+        <v>0.2989148101435543</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2886534626805708</v>
+        <v>0.2883522980752072</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3095448460214353</v>
+        <v>0.3091467242509585</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>374746</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>337257</v>
+        <v>338499</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>417552</v>
+        <v>412906</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1078133354643749</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09702780960887958</v>
+        <v>0.09738512621022634</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1201284409765678</v>
+        <v>0.1187917259286866</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>634</v>
@@ -9797,19 +9797,19 @@
         <v>410530</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>376196</v>
+        <v>376656</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>443114</v>
+        <v>443623</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1113392749293264</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1020274595183179</v>
+        <v>0.1021522275899182</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1201763294357732</v>
+        <v>0.1203144266378978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1023</v>
@@ -9818,19 +9818,19 @@
         <v>785276</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>738212</v>
+        <v>733411</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>836030</v>
+        <v>836802</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1096283148919403</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1030579507814542</v>
+        <v>0.1023876304516583</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1167137993498452</v>
+        <v>0.1168215149114309</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>141836</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>120944</v>
+        <v>119614</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>170050</v>
+        <v>167819</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04080590816642747</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03479513778416029</v>
+        <v>0.03441265658947849</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04892276515288005</v>
+        <v>0.04828092869247422</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>268</v>
@@ -9868,19 +9868,19 @@
         <v>160930</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>142780</v>
+        <v>142852</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>181692</v>
+        <v>180939</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04364570927550267</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03872301993239059</v>
+        <v>0.03874257274388446</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04927644401341497</v>
+        <v>0.04907208314954518</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>422</v>
@@ -9889,19 +9889,19 @@
         <v>302767</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>274260</v>
+        <v>275062</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>335899</v>
+        <v>342617</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04226769746898992</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03828800844653277</v>
+        <v>0.03840002842499387</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04689311696641178</v>
+        <v>0.04783093147069328</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>50930</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39731</v>
+        <v>38542</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67569</v>
+        <v>65990</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01465246717925495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01143056823970111</v>
+        <v>0.01108830544101384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01943942117722782</v>
+        <v>0.01898500471098241</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>120</v>
@@ -9939,19 +9939,19 @@
         <v>79524</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65654</v>
+        <v>64889</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>97711</v>
+        <v>97436</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02156760441210032</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0178058595334206</v>
+        <v>0.01759842179990237</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02649998518171386</v>
+        <v>0.02642537115994555</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>179</v>
@@ -9960,19 +9960,19 @@
         <v>130454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>111115</v>
+        <v>110043</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>154171</v>
+        <v>152853</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01821203816484994</v>
+        <v>0.01821203816484995</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01551218897080737</v>
+        <v>0.0153625635607236</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02152299560357925</v>
+        <v>0.02133901894702512</v>
       </c>
     </row>
     <row r="33">
